--- a/resources/checklist_project.xlsx
+++ b/resources/checklist_project.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192CBC7-B39E-4BAC-8E55-8D05B28D8B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F7993-30C2-44DF-ADFC-E6B3327695B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Front-End Web Design</t>
   </si>
@@ -70,9 +70,6 @@
     <t>web site can run in the browser: Safari (iOS)</t>
   </si>
   <si>
-    <t>Personally build styling beyon bootstrap</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -86,13 +83,109 @@
   </si>
   <si>
     <t>All non-decorative images have “alt” attributes with a value that describes the image</t>
+  </si>
+  <si>
+    <t>Use responsive image techniques for larger images</t>
+  </si>
+  <si>
+    <t>Forms are validated either with HTML or JavaScript before form is submitted</t>
+  </si>
+  <si>
+    <t>layout code (Flex/CSS Grid) for site layout</t>
+  </si>
+  <si>
+    <t>JavaScript is error free</t>
+  </si>
+  <si>
+    <t># Program submission requirements</t>
+  </si>
+  <si>
+    <t># Program intake dates</t>
+  </si>
+  <si>
+    <t># Program lengths</t>
+  </si>
+  <si>
+    <t># Program campus location</t>
+  </si>
+  <si>
+    <t># How to apply for the program</t>
+  </si>
+  <si>
+    <t># Any required software or equipment (if any)</t>
+  </si>
+  <si>
+    <t>Prospective students - the site should provide the following information:</t>
+  </si>
+  <si>
+    <t>Current students - the site should provide the following information:</t>
+  </si>
+  <si>
+    <t># Program overview</t>
+  </si>
+  <si>
+    <t># A program schedule calendar</t>
+  </si>
+  <si>
+    <t># Instructor information</t>
+  </si>
+  <si>
+    <t># Fellow student’s information</t>
+  </si>
+  <si>
+    <t># (Optional) Server and Software Requirement information</t>
+  </si>
+  <si>
+    <t># E-Resources</t>
+  </si>
+  <si>
+    <t># Provide a summary for each major course in the program</t>
+  </si>
+  <si>
+    <t>Prospective students and current students</t>
+  </si>
+  <si>
+    <t>Content Requirements:</t>
+  </si>
+  <si>
+    <t>Personally build styling beyond bootstrap</t>
+  </si>
+  <si>
+    <t>Welcome or home page</t>
+  </si>
+  <si>
+    <t>Schedule page</t>
+  </si>
+  <si>
+    <t>Students page</t>
+  </si>
+  <si>
+    <t>Staff page</t>
+  </si>
+  <si>
+    <t>E-Resources page</t>
+  </si>
+  <si>
+    <t>Program overview page</t>
+  </si>
+  <si>
+    <t>Individual Courses summary page</t>
+  </si>
+  <si>
+    <t>A Contact Page</t>
+  </si>
+  <si>
+    <t>Tech information page (Optional – not required)</t>
+  </si>
+  <si>
+    <t>Karl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +213,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -160,6 +275,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,40 +565,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="91.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1">
+    <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1">
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1">
+      <c r="D2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1">
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -483,93 +659,316 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1">
-      <c r="A18" s="5" t="s">
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1">
+      <c r="A7" s="4"/>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1">
+      <c r="A25" s="4"/>
+      <c r="B25"/>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:11">
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:11">
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:11">
       <c r="C31" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
